--- a/data/trans_camb/P68-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P68-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 6,26</t>
+          <t>-6,13; 5,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 4,98</t>
+          <t>-7,81; 5,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 0,87</t>
+          <t>-10,67; 0,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 9,71</t>
+          <t>-7,44; 9,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 8,04</t>
+          <t>-7,71; 8,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,35</t>
+          <t>-9,93; 4,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,28</t>
+          <t>-4,44; 5,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,43</t>
+          <t>-5,23; 4,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 0,91</t>
+          <t>-7,54; 0,71</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 40,13</t>
+          <t>-29,96; 37,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 33,26</t>
+          <t>-36,65; 35,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 6,87</t>
+          <t>-50,43; 1,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 54,04</t>
+          <t>-28,92; 59,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 47,86</t>
+          <t>-30,38; 48,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 24,27</t>
+          <t>-37,07; 24,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 30,83</t>
+          <t>-20,53; 31,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 25,17</t>
+          <t>-24,13; 27,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 7,4</t>
+          <t>-34,32; 4,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 5,36</t>
+          <t>-8,16; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 3,08</t>
+          <t>-10,3; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,05</t>
+          <t>-6,12; 7,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 6,46</t>
+          <t>-8,94; 6,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 5,15</t>
+          <t>-9,38; 5,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 5,49</t>
+          <t>-7,02; 6,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,46</t>
+          <t>-6,62; 3,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,93</t>
+          <t>-7,44; 2,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,9</t>
+          <t>-4,62; 4,53</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 42,01</t>
+          <t>-45,19; 37,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 26,2</t>
+          <t>-51,07; 21,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 69,3</t>
+          <t>-32,32; 57,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 44,55</t>
+          <t>-44,38; 45,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 34,61</t>
+          <t>-44,47; 39,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 37,78</t>
+          <t>-33,54; 46,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 23,44</t>
+          <t>-34,65; 25,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 14,11</t>
+          <t>-39,47; 14,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 33,13</t>
+          <t>-24,2; 31,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 9,12</t>
+          <t>-5,1; 9,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 12,93</t>
+          <t>-3,74; 12,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,62; -0,25</t>
+          <t>-27,07; -0,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 16,69</t>
+          <t>-14,27; 15,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 1,56</t>
+          <t>-29,14; -0,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 10,82</t>
+          <t>-18,39; 10,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 9,13</t>
+          <t>-3,78; 8,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 7,94</t>
+          <t>-6,13; 7,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -0,47</t>
+          <t>-26,28; -1,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 38,79</t>
+          <t>-17,48; 41,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 53,94</t>
+          <t>-12,18; 54,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 1,06</t>
+          <t>-88,56; -2,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 89,15</t>
+          <t>-37,6; 77,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,2; 10,28</t>
+          <t>-77,04; 7,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 60,38</t>
+          <t>-48,36; 57,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 39,45</t>
+          <t>-13,39; 36,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 32,91</t>
+          <t>-21,08; 28,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,08; -0,77</t>
+          <t>-86,65; -2,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,97</t>
+          <t>-5,96; 5,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 5,65</t>
+          <t>-5,61; 5,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 1,16</t>
+          <t>-9,61; 0,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,68</t>
+          <t>-0,31; 13,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 12,74</t>
+          <t>0,49; 12,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 14,09</t>
+          <t>3,5; 14,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,01</t>
+          <t>-3,5; 4,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,31</t>
+          <t>-3,04; 5,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,67</t>
+          <t>-4,17; 3,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 19,03</t>
+          <t>-19,13; 19,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 21,45</t>
+          <t>-18,46; 22,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 5,61</t>
+          <t>-31,54; 1,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 91,65</t>
+          <t>-1,98; 95,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 93,09</t>
+          <t>1,78; 95,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,04; 107,97</t>
+          <t>17,34; 107,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 21,15</t>
+          <t>-13,26; 21,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 22,69</t>
+          <t>-11,26; 22,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 15,78</t>
+          <t>-15,46; 15,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 1,99</t>
+          <t>-18,82; 1,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 10,64</t>
+          <t>-7,92; 10,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -3,49</t>
+          <t>-22,03; -3,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 2,69</t>
+          <t>-16,28; 2,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 2,03</t>
+          <t>-16,22; 1,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 19,98</t>
+          <t>-12,93; 21,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 0,05</t>
+          <t>-13,75; -0,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 3,78</t>
+          <t>-10,0; 3,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 8,37</t>
+          <t>-13,05; 9,02</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 6,44</t>
+          <t>-46,78; 6,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 36,49</t>
+          <t>-19,94; 39,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,44; -11,91</t>
+          <t>-55,08; -11,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 10,17</t>
+          <t>-46,12; 9,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 6,98</t>
+          <t>-45,26; 6,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 66,78</t>
+          <t>-37,18; 73,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 1,08</t>
+          <t>-39,24; -2,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 13,69</t>
+          <t>-27,37; 12,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 26,32</t>
+          <t>-37,6; 31,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,32</t>
+          <t>-4,59; 1,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,05</t>
+          <t>-3,35; 2,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -3,52</t>
+          <t>-15,1; -3,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,15</t>
+          <t>-2,87; 4,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,42</t>
+          <t>-4,19; 3,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 9,34</t>
+          <t>-1,46; 8,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,74</t>
+          <t>-2,86; 1,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,92</t>
+          <t>-2,8; 1,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,14</t>
+          <t>-7,97; 0,14</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 5,55</t>
+          <t>-17,38; 6,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 12,95</t>
+          <t>-12,4; 12,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-56,07; -14,75</t>
+          <t>-58,76; -14,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 26,19</t>
+          <t>-12,53; 24,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 17,58</t>
+          <t>-17,82; 16,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 44,77</t>
+          <t>-6,7; 43,43</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 7,76</t>
+          <t>-11,44; 8,87</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 8,52</t>
+          <t>-11,08; 8,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 0,52</t>
+          <t>-33,18; 0,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P68-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P68-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
